--- a/Data cleaning/0 - Scenarios/Input/Energy_conversion_factors.xlsx
+++ b/Data cleaning/0 - Scenarios/Input/Energy_conversion_factors.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vivideconomics.sharepoint.com/sites/projects/171211HSB/Shared Documents/6 - analysis/Data cleaning/0 - Scenarios/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyamal\Vivid Economics Ltd\171211HSB - Low Carbon Portfolio - Documents\6 - analysis\Data cleaning\0 - Scenarios\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{B0AE3774-286D-4292-A123-F28F83FE58C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{33DE41BF-7246-42DE-829B-60FB652BC1DC}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{B0AE3774-286D-4292-A123-F28F83FE58C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{55775844-43DA-4CB1-B499-0E0F1C91B53C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20328" windowHeight="9168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy unit conversions" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -463,15 +464,7 @@
     <cellStyle name="Percent 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Percent 8" xfId="23" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1563,7 +1556,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3007,12 +3000,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3021,9 +3008,15 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071A458A34C1B804487783B2D6E744E74" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2dd0d90af8f862a9b6eed6d00c8d83d6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5fc07e1-684f-42dd-a9b9-4a385070eb2f" xmlns:ns3="40da89ef-49c0-40fe-8775-bed27f6d4e3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9eadf6f6e3e5a01bd3709fd17109d16b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071A458A34C1B804487783B2D6E744E74" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="db55914762f75c69a3f428beb16e5e78">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5fc07e1-684f-42dd-a9b9-4a385070eb2f" xmlns:ns3="40da89ef-49c0-40fe-8775-bed27f6d4e3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3788be5c6e889f205c249745f37b3686" ns2:_="" ns3:_="">
     <xsd:import namespace="b5fc07e1-684f-42dd-a9b9-4a385070eb2f"/>
     <xsd:import namespace="40da89ef-49c0-40fe-8775-bed27f6d4e3e"/>
     <xsd:element name="properties">
@@ -3213,23 +3206,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C1667C-D128-41F2-BB5D-7EE5FCCD0ADE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5fc07e1-684f-42dd-a9b9-4a385070eb2f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="40da89ef-49c0-40fe-8775-bed27f6d4e3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E9115F3-7959-4110-BC63-72845B5D1A1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3237,21 +3213,23 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5A53AA-DE53-4393-B809-F852BAC50757}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94C1667C-D128-41F2-BB5D-7EE5FCCD0ADE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="b5fc07e1-684f-42dd-a9b9-4a385070eb2f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="40da89ef-49c0-40fe-8775-bed27f6d4e3e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{147CA979-654F-4CEC-9713-D14C173020CF}"/>
 </file>